--- a/src/test/resources/testdata/Login.xlsx
+++ b/src/test/resources/testdata/Login.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vivek\work-space\SeleniumCucumber\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE40AB72-A9F0-4AAB-8243-BE73572FC8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33316980-F075-46E1-A4B5-F06E09B1EC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Successful-2" sheetId="3" r:id="rId1"/>
+    <sheet name="Successful-1" sheetId="2" r:id="rId2"/>
+    <sheet name="Successful" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,18 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>| username | password |</t>
-  </si>
-  <si>
-    <t>|----------|----------|</t>
-  </si>
-  <si>
-    <t>| user1    | pass1    |</t>
-  </si>
-  <si>
-    <t>| user2    | pass2    |</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user1</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>Pass2</t>
+  </si>
+  <si>
+    <t>user-succ1-1</t>
+  </si>
+  <si>
+    <t>user-succ1-2</t>
+  </si>
+  <si>
+    <t>pass-succ2-1</t>
+  </si>
+  <si>
+    <t>pass-succ2-2</t>
+  </si>
+  <si>
+    <t>user-succ2-1</t>
+  </si>
+  <si>
+    <t>user-succ2-2</t>
+  </si>
+  <si>
+    <t>pass-succ1-1</t>
   </si>
 </sst>
 </file>
@@ -353,33 +379,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1735586B-3789-422D-B3E9-E25409D361FB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868D8F4E-75BE-4190-9462-A3ADC8FDCF92}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/Login.xlsx
+++ b/src/test/resources/testdata/Login.xlsx
@@ -3,23 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vivek\work-space\SeleniumCucumber\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33316980-F075-46E1-A4B5-F06E09B1EC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A353E0A4-4154-42BC-A300-0A19504E1E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Successful-2" sheetId="3" r:id="rId1"/>
     <sheet name="Successful-1" sheetId="2" r:id="rId2"/>
     <sheet name="Successful" sheetId="1" r:id="rId3"/>
+    <sheet name="Login" sheetId="5" r:id="rId4"/>
+    <sheet name="Successful login with valid cre" r:id="rId8" sheetId="6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>password</t>
   </si>
@@ -63,19 +65,39 @@
   </si>
   <si>
     <t>pass-succ1-1</t>
+  </si>
+  <si>
+    <t>newPass</t>
+  </si>
+  <si>
+    <t>newUser</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Password123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,8 +411,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -423,48 +446,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868D8F4E-75BE-4190-9462-A3ADC8FDCF92}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -472,6 +453,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -483,6 +467,45 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -497,7 +520,75 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F35391-3C0B-4B2D-9F25-9ACA6FC97975}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>